--- a/Variance Estimation/Additional Requests/Adding Smaller nB/f3/Cached Iter Files/f3_raw_results_iter_100_200.xlsx
+++ b/Variance Estimation/Additional Requests/Adding Smaller nB/f3/Cached Iter Files/f3_raw_results_iter_100_200.xlsx
@@ -479,7 +479,7 @@
         <v>0.01</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00358</v>
+        <v>0.0044</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -488,13 +488,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00000136977290090092</v>
+        <v>0.00000349733873873824</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00165490776698108</v>
+        <v>0.00132393076616479</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00550509223301892</v>
+        <v>0.00747606923383521</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
@@ -517,22 +517,22 @@
         <v>0.01</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00358</v>
+        <v>0.0044</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00000399805756282691</v>
+        <v>0.0000156353534355359</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00029109159929879</v>
+        <v>-0.00210400862084163</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00686890840070121</v>
+        <v>0.0109040086208416</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -555,22 +555,22 @@
         <v>0.1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07668</v>
+        <v>0.08219</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0000838855592074627</v>
+        <v>0.000156235459982262</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0616149402388546</v>
+        <v>0.0616302863333996</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0917450597611455</v>
+        <v>0.1027497136666</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -593,7 +593,7 @@
         <v>0.1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07668</v>
+        <v>0.08219</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -602,13 +602,13 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000203629227280538</v>
+        <v>0.000527083044309269</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0532081504152024</v>
+        <v>0.0444269746935495</v>
       </c>
       <c r="K5" t="n">
-        <v>0.100151849584798</v>
+        <v>0.119953025306451</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -631,22 +631,22 @@
         <v>0.25</v>
       </c>
       <c r="F6" t="n">
-        <v>0.21938</v>
+        <v>0.22822</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000276383596683229</v>
+        <v>0.000476552050016417</v>
       </c>
       <c r="J6" t="n">
-        <v>0.192034656139927</v>
+        <v>0.192312726649637</v>
       </c>
       <c r="K6" t="n">
-        <v>0.246725343860073</v>
+        <v>0.264127273350363</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -669,7 +669,7 @@
         <v>0.25</v>
       </c>
       <c r="F7" t="n">
-        <v>0.21938</v>
+        <v>0.22822</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
@@ -678,13 +678,13 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.000488413969389061</v>
+        <v>0.00112321731636861</v>
       </c>
       <c r="J7" t="n">
-        <v>0.183028587128293</v>
+        <v>0.173093660942996</v>
       </c>
       <c r="K7" t="n">
-        <v>0.255731412871707</v>
+        <v>0.283346339057004</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -707,7 +707,7 @@
         <v>0.5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.49091</v>
+        <v>0.4818</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
@@ -716,13 +716,13 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.000446143057815875</v>
+        <v>0.000800109677477525</v>
       </c>
       <c r="J8" t="n">
-        <v>0.456167239176141</v>
+        <v>0.435273324850601</v>
       </c>
       <c r="K8" t="n">
-        <v>0.525652760823859</v>
+        <v>0.528326675149399</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -745,7 +745,7 @@
         <v>0.5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.49091</v>
+        <v>0.4818</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -754,13 +754,13 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.000540427583940735</v>
+        <v>0.0012510312856084</v>
       </c>
       <c r="J9" t="n">
-        <v>0.452671925883441</v>
+        <v>0.423621657761274</v>
       </c>
       <c r="K9" t="n">
-        <v>0.529148074116559</v>
+        <v>0.539978342238727</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -783,7 +783,7 @@
         <v>0.75</v>
       </c>
       <c r="F10" t="n">
-        <v>0.76727</v>
+        <v>0.74475</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.000268188257311026</v>
+        <v>0.000615706299551584</v>
       </c>
       <c r="J10" t="n">
-        <v>0.740333129654076</v>
+        <v>0.703935539959506</v>
       </c>
       <c r="K10" t="n">
-        <v>0.794206870345924</v>
+        <v>0.785564460040494</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -821,7 +821,7 @@
         <v>0.75</v>
       </c>
       <c r="F11" t="n">
-        <v>0.76727</v>
+        <v>0.74475</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
@@ -830,13 +830,13 @@
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00035099972768006</v>
+        <v>0.000883852885833083</v>
       </c>
       <c r="J11" t="n">
-        <v>0.736453689130364</v>
+        <v>0.695849055329687</v>
       </c>
       <c r="K11" t="n">
-        <v>0.798086310869636</v>
+        <v>0.793650944670313</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
@@ -859,22 +859,22 @@
         <v>0.9</v>
       </c>
       <c r="F12" t="n">
-        <v>0.91804</v>
+        <v>0.90185</v>
       </c>
       <c r="G12" t="s">
         <v>15</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.000079814894110429</v>
+        <v>0.000244747831057568</v>
       </c>
       <c r="J12" t="n">
-        <v>0.903345012272894</v>
+        <v>0.876117221443811</v>
       </c>
       <c r="K12" t="n">
-        <v>0.932734987727106</v>
+        <v>0.927582778556189</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
@@ -897,7 +897,7 @@
         <v>0.9</v>
       </c>
       <c r="F13" t="n">
-        <v>0.91804</v>
+        <v>0.90185</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -906,13 +906,13 @@
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.000143568147136554</v>
+        <v>0.000375046323539669</v>
       </c>
       <c r="J13" t="n">
-        <v>0.898331375981517</v>
+        <v>0.869995579182234</v>
       </c>
       <c r="K13" t="n">
-        <v>0.937748624018483</v>
+        <v>0.933704420817766</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
@@ -935,7 +935,7 @@
         <v>0.99</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9924</v>
+        <v>0.99243</v>
       </c>
       <c r="G14" t="s">
         <v>15</v>
@@ -944,13 +944,13 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.00000417688287693223</v>
+        <v>0.00000876390377840039</v>
       </c>
       <c r="J14" t="n">
-        <v>0.989038342949347</v>
+        <v>0.987560593208616</v>
       </c>
       <c r="K14" t="n">
-        <v>0.995761657050653</v>
+        <v>0.997299406791384</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
@@ -973,7 +973,7 @@
         <v>0.99</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9924</v>
+        <v>0.99243</v>
       </c>
       <c r="G15" t="s">
         <v>17</v>
@@ -982,13 +982,13 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.00000783902595772937</v>
+        <v>0.0000127479512187499</v>
       </c>
       <c r="J15" t="n">
-        <v>0.98779469595288</v>
+        <v>0.986557169679531</v>
       </c>
       <c r="K15" t="n">
-        <v>0.99700530404712</v>
+        <v>0.998302830320469</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
@@ -1008,10 +1008,10 @@
         <v>14</v>
       </c>
       <c r="E16" t="n">
-        <v>15.6887566951521</v>
+        <v>-2.95315934070469</v>
       </c>
       <c r="F16" t="n">
-        <v>17.7050968041336</v>
+        <v>-2.22094052558757</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.606216330430954</v>
+        <v>0.0656784387256037</v>
       </c>
       <c r="J16" t="n">
-        <v>16.4244154914866</v>
+        <v>-2.64248040504059</v>
       </c>
       <c r="K16" t="n">
-        <v>18.9857781167805</v>
+        <v>-1.79940064613456</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -1046,10 +1046,10 @@
         <v>14</v>
       </c>
       <c r="E17" t="n">
-        <v>15.6887566951521</v>
+        <v>-2.95315934070469</v>
       </c>
       <c r="F17" t="n">
-        <v>17.7050968041336</v>
+        <v>-2.22094052558757</v>
       </c>
       <c r="G17" t="s">
         <v>15</v>
@@ -1058,13 +1058,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.169790982864895</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>17.272818577803</v>
+        <v>-2.22094052558757</v>
       </c>
       <c r="K17" t="n">
-        <v>18.6283655260929</v>
+        <v>-2.22094052558757</v>
       </c>
       <c r="L17" t="s">
         <v>16</v>
@@ -1084,10 +1084,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>15.6887566951521</v>
+        <v>-2.95315934070469</v>
       </c>
       <c r="F18" t="n">
-        <v>17.7050968041336</v>
+        <v>-2.22094052558757</v>
       </c>
       <c r="G18" t="s">
         <v>25</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.169790982864895</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>17.272818577803</v>
+        <v>-2.22094052558757</v>
       </c>
       <c r="K18" t="n">
-        <v>18.6283655260929</v>
+        <v>-2.22094052558757</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -1122,25 +1122,25 @@
         <v>18</v>
       </c>
       <c r="E19" t="n">
-        <v>23.0645884570442</v>
+        <v>-1.85385518975421</v>
       </c>
       <c r="F19" t="n">
-        <v>24.0320046024327</v>
+        <v>-1.74389188838626</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0.274923383041567</v>
+        <v>0.0204367157884296</v>
       </c>
       <c r="J19" t="n">
-        <v>23.1695562507236</v>
+        <v>-1.97903529702148</v>
       </c>
       <c r="K19" t="n">
-        <v>24.8944529541419</v>
+        <v>-1.50874847975103</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
@@ -1160,25 +1160,25 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>23.0645884570442</v>
+        <v>-1.85385518975421</v>
       </c>
       <c r="F20" t="n">
-        <v>24.0320046024327</v>
+        <v>-1.74389188838626</v>
       </c>
       <c r="G20" t="s">
         <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0.145348343404973</v>
+        <v>0.00503115978270712</v>
       </c>
       <c r="J20" t="n">
-        <v>23.4054009631557</v>
+        <v>-1.85470418548609</v>
       </c>
       <c r="K20" t="n">
-        <v>24.6595879652617</v>
+        <v>-1.62136304966464</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -1198,10 +1198,10 @@
         <v>18</v>
       </c>
       <c r="E21" t="n">
-        <v>23.0645884570442</v>
+        <v>-1.85385518975421</v>
       </c>
       <c r="F21" t="n">
-        <v>24.0320046024327</v>
+        <v>-1.74389188838626</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
@@ -1210,13 +1210,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0646448399761959</v>
+        <v>0.00099316740522434</v>
       </c>
       <c r="J21" t="n">
-        <v>23.5868106612062</v>
+        <v>-1.79341851141482</v>
       </c>
       <c r="K21" t="n">
-        <v>24.4232302296971</v>
+        <v>-1.68974483930804</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
@@ -1236,10 +1236,10 @@
         <v>19</v>
       </c>
       <c r="E22" t="n">
-        <v>27.2438110199214</v>
+        <v>-1.18780790654076</v>
       </c>
       <c r="F22" t="n">
-        <v>27.8942174954208</v>
+        <v>-1.11118360677067</v>
       </c>
       <c r="G22" t="s">
         <v>17</v>
@@ -1248,13 +1248,13 @@
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0.160344476257643</v>
+        <v>0.012863679736327</v>
       </c>
       <c r="J22" t="n">
-        <v>27.2355681591733</v>
+        <v>-1.29773988381918</v>
       </c>
       <c r="K22" t="n">
-        <v>28.5528668316683</v>
+        <v>-0.924627329722165</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -1274,25 +1274,25 @@
         <v>19</v>
       </c>
       <c r="E23" t="n">
-        <v>27.2438110199214</v>
+        <v>-1.18780790654076</v>
       </c>
       <c r="F23" t="n">
-        <v>27.8942174954208</v>
+        <v>-1.11118360677067</v>
       </c>
       <c r="G23" t="s">
         <v>15</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0.129324355306157</v>
+        <v>0.00563972395888564</v>
       </c>
       <c r="J23" t="n">
-        <v>27.2870656702717</v>
+        <v>-1.23315548651392</v>
       </c>
       <c r="K23" t="n">
-        <v>28.4701001802564</v>
+        <v>-0.986104736748873</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -1312,10 +1312,10 @@
         <v>19</v>
       </c>
       <c r="E24" t="n">
-        <v>27.2438110199214</v>
+        <v>-1.18780790654076</v>
       </c>
       <c r="F24" t="n">
-        <v>27.8942174954208</v>
+        <v>-1.11118360677067</v>
       </c>
       <c r="G24" t="s">
         <v>25</v>
@@ -1324,13 +1324,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0451120466547226</v>
+        <v>0.00110351038075778</v>
       </c>
       <c r="J24" t="n">
-        <v>27.5421186254775</v>
+        <v>-1.16252659541467</v>
       </c>
       <c r="K24" t="n">
-        <v>28.2408391777086</v>
+        <v>-1.05324539324</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
@@ -1350,10 +1350,10 @@
         <v>20</v>
       </c>
       <c r="E25" t="n">
-        <v>31.9802459892657</v>
+        <v>-0.423352977060986</v>
       </c>
       <c r="F25" t="n">
-        <v>32.1282706274041</v>
+        <v>-0.371226453141027</v>
       </c>
       <c r="G25" t="s">
         <v>17</v>
@@ -1362,13 +1362,13 @@
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0930846422977123</v>
+        <v>0.00859250873330799</v>
       </c>
       <c r="J25" t="n">
-        <v>31.6264294726097</v>
+        <v>-0.523697452867727</v>
       </c>
       <c r="K25" t="n">
-        <v>32.6301117821985</v>
+        <v>-0.218755453414328</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
@@ -1388,10 +1388,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>31.9802459892657</v>
+        <v>-0.423352977060986</v>
       </c>
       <c r="F26" t="n">
-        <v>32.1282706274041</v>
+        <v>-0.371226453141027</v>
       </c>
       <c r="G26" t="s">
         <v>15</v>
@@ -1400,13 +1400,13 @@
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0.113697822809877</v>
+        <v>0.00603561417824911</v>
       </c>
       <c r="J26" t="n">
-        <v>31.575524954684</v>
+        <v>-0.496257369897435</v>
       </c>
       <c r="K26" t="n">
-        <v>32.6847848886006</v>
+        <v>-0.240682594683547</v>
       </c>
       <c r="L26" t="s">
         <v>16</v>
@@ -1426,25 +1426,25 @@
         <v>20</v>
       </c>
       <c r="E27" t="n">
-        <v>31.9802459892657</v>
+        <v>-0.423352977060986</v>
       </c>
       <c r="F27" t="n">
-        <v>32.1282706274041</v>
+        <v>-0.371226453141027</v>
       </c>
       <c r="G27" t="s">
         <v>25</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0371472043485449</v>
+        <v>0.000885344435602199</v>
       </c>
       <c r="J27" t="n">
-        <v>31.8218830829114</v>
+        <v>-0.414335200967193</v>
       </c>
       <c r="K27" t="n">
-        <v>32.4559284300693</v>
+        <v>-0.316450823411562</v>
       </c>
       <c r="L27" t="s">
         <v>16</v>
@@ -1464,10 +1464,10 @@
         <v>21</v>
       </c>
       <c r="E28" t="n">
-        <v>36.6962823324344</v>
+        <v>0.343735110269007</v>
       </c>
       <c r="F28" t="n">
-        <v>36.3473124595908</v>
+        <v>0.371274410944863</v>
       </c>
       <c r="G28" t="s">
         <v>17</v>
@@ -1476,13 +1476,13 @@
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0963454657010371</v>
+        <v>0.009181937223925</v>
       </c>
       <c r="J28" t="n">
-        <v>35.8367570325711</v>
+        <v>0.21366054685891</v>
       </c>
       <c r="K28" t="n">
-        <v>36.8578678866104</v>
+        <v>0.528888275030816</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
@@ -1502,10 +1502,10 @@
         <v>21</v>
       </c>
       <c r="E29" t="n">
-        <v>36.6962823324344</v>
+        <v>0.343735110269007</v>
       </c>
       <c r="F29" t="n">
-        <v>36.3473124595908</v>
+        <v>0.371274410944863</v>
       </c>
       <c r="G29" t="s">
         <v>15</v>
@@ -1514,13 +1514,13 @@
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0.123102578892888</v>
+        <v>0.00695379126341336</v>
       </c>
       <c r="J29" t="n">
-        <v>35.8020957243782</v>
+        <v>0.232397112994271</v>
       </c>
       <c r="K29" t="n">
-        <v>36.9563216580774</v>
+        <v>0.506723811905433</v>
       </c>
       <c r="L29" t="s">
         <v>16</v>
@@ -1540,10 +1540,10 @@
         <v>21</v>
       </c>
       <c r="E30" t="n">
-        <v>36.6962823324344</v>
+        <v>0.343735110269007</v>
       </c>
       <c r="F30" t="n">
-        <v>36.3473124595908</v>
+        <v>0.371274410944863</v>
       </c>
       <c r="G30" t="s">
         <v>25</v>
@@ -1552,13 +1552,13 @@
         <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0.046333296914829</v>
+        <v>0.00094811534855128</v>
       </c>
       <c r="J30" t="n">
-        <v>36.0094763061383</v>
+        <v>0.314956982277191</v>
       </c>
       <c r="K30" t="n">
-        <v>36.7175914046204</v>
+        <v>0.416251943158773</v>
       </c>
       <c r="L30" t="s">
         <v>16</v>
@@ -1578,10 +1578,10 @@
         <v>22</v>
       </c>
       <c r="E31" t="n">
-        <v>40.9570401195555</v>
+        <v>1.01828545534371</v>
       </c>
       <c r="F31" t="n">
-        <v>40.29830361767</v>
+        <v>1.01106859531983</v>
       </c>
       <c r="G31" t="s">
         <v>17</v>
@@ -1590,13 +1590,13 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0.168475694527035</v>
+        <v>0.0129225636017092</v>
       </c>
       <c r="J31" t="n">
-        <v>39.6231604384097</v>
+        <v>0.824085822416188</v>
       </c>
       <c r="K31" t="n">
-        <v>40.9734467969304</v>
+        <v>1.19805136822348</v>
       </c>
       <c r="L31" t="s">
         <v>16</v>
@@ -1616,10 +1616,10 @@
         <v>22</v>
       </c>
       <c r="E32" t="n">
-        <v>40.9570401195555</v>
+        <v>1.01828545534371</v>
       </c>
       <c r="F32" t="n">
-        <v>40.29830361767</v>
+        <v>1.01106859531983</v>
       </c>
       <c r="G32" t="s">
         <v>15</v>
@@ -1628,13 +1628,13 @@
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0.144483479140307</v>
+        <v>0.00826672102068411</v>
       </c>
       <c r="J32" t="n">
-        <v>39.7125094870987</v>
+        <v>0.88653078226086</v>
       </c>
       <c r="K32" t="n">
-        <v>40.9629595360219</v>
+        <v>1.18563593396738</v>
       </c>
       <c r="L32" t="s">
         <v>16</v>
@@ -1654,25 +1654,25 @@
         <v>22</v>
       </c>
       <c r="E33" t="n">
-        <v>40.9570401195555</v>
+        <v>1.01828545534371</v>
       </c>
       <c r="F33" t="n">
-        <v>40.29830361767</v>
+        <v>1.01106859531983</v>
       </c>
       <c r="G33" t="s">
         <v>25</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0958093282990169</v>
+        <v>0.000840403144927224</v>
       </c>
       <c r="J33" t="n">
-        <v>39.8337471744065</v>
+        <v>0.968517689001458</v>
       </c>
       <c r="K33" t="n">
-        <v>40.8520129570403</v>
+        <v>1.06388534027922</v>
       </c>
       <c r="L33" t="s">
         <v>16</v>
@@ -1692,26 +1692,16 @@
         <v>23</v>
       </c>
       <c r="E34" t="n">
-        <v>48.3307359372254</v>
-      </c>
-      <c r="F34" t="n">
-        <v>47.7458865041447</v>
-      </c>
+        <v>2.12486651454271</v>
+      </c>
+      <c r="F34"/>
       <c r="G34" t="s">
         <v>17</v>
       </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.559611351662128</v>
-      </c>
-      <c r="J34" t="n">
-        <v>46.5154179635769</v>
-      </c>
-      <c r="K34" t="n">
-        <v>48.9763550447124</v>
-      </c>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
       <c r="L34" t="s">
         <v>16</v>
       </c>
@@ -1730,26 +1720,16 @@
         <v>23</v>
       </c>
       <c r="E35" t="n">
-        <v>48.3307359372254</v>
-      </c>
-      <c r="F35" t="n">
-        <v>47.7458865041447</v>
-      </c>
+        <v>2.12486651454271</v>
+      </c>
+      <c r="F35"/>
       <c r="G35" t="s">
         <v>15</v>
       </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.603307798368206</v>
-      </c>
-      <c r="J35" t="n">
-        <v>46.6728582973103</v>
-      </c>
-      <c r="K35" t="n">
-        <v>49.2280690241818</v>
-      </c>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
       <c r="L35" t="s">
         <v>16</v>
       </c>
@@ -1768,26 +1748,16 @@
         <v>23</v>
       </c>
       <c r="E36" t="n">
-        <v>48.3307359372254</v>
-      </c>
-      <c r="F36" t="n">
-        <v>47.7458865041447</v>
-      </c>
+        <v>2.12486651454271</v>
+      </c>
+      <c r="F36"/>
       <c r="G36" t="s">
         <v>25</v>
       </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.603307798368206</v>
-      </c>
-      <c r="J36" t="n">
-        <v>46.6728582973103</v>
-      </c>
-      <c r="K36" t="n">
-        <v>49.2280690241818</v>
-      </c>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
       <c r="L36" t="s">
         <v>16</v>
       </c>
@@ -1809,22 +1779,22 @@
         <v>0.01</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0071</v>
+        <v>0.00059</v>
       </c>
       <c r="G37" t="s">
         <v>15</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.00000339269909909916</v>
+        <v>0.000000241492054054063</v>
       </c>
       <c r="J37" t="n">
-        <v>0.00407029789595031</v>
+        <v>-0.000218311354653654</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0101297021040497</v>
+        <v>0.00139831135465365</v>
       </c>
       <c r="L37" t="s">
         <v>16</v>
@@ -1847,22 +1817,22 @@
         <v>0.01</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0071</v>
+        <v>0.00059</v>
       </c>
       <c r="G38" t="s">
         <v>17</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0000180410005637343</v>
+        <v>0.000000537917943948812</v>
       </c>
       <c r="J38" t="n">
-        <v>0.000113533727230696</v>
+        <v>-0.000616383177970901</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0140864662727693</v>
+        <v>0.0017963831779709</v>
       </c>
       <c r="L38" t="s">
         <v>16</v>
@@ -1885,22 +1855,22 @@
         <v>0.1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.09246</v>
+        <v>0.0235</v>
       </c>
       <c r="G39" t="s">
         <v>15</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0000852128670992276</v>
+        <v>0.0000382560576578053</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0772762219857831</v>
+        <v>0.0133263366295335</v>
       </c>
       <c r="K39" t="n">
-        <v>0.107643778014217</v>
+        <v>0.0336736633704665</v>
       </c>
       <c r="L39" t="s">
         <v>16</v>
@@ -1923,22 +1893,22 @@
         <v>0.1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09246</v>
+        <v>0.0235</v>
       </c>
       <c r="G40" t="s">
         <v>17</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.000341444315181277</v>
+        <v>0.000152886991734385</v>
       </c>
       <c r="J40" t="n">
-        <v>0.062066046129587</v>
+        <v>0.0031617994969244</v>
       </c>
       <c r="K40" t="n">
-        <v>0.122853953870413</v>
+        <v>0.0438382005030756</v>
       </c>
       <c r="L40" t="s">
         <v>16</v>
@@ -1961,22 +1931,22 @@
         <v>0.25</v>
       </c>
       <c r="F41" t="n">
-        <v>0.23252</v>
+        <v>0.10725</v>
       </c>
       <c r="G41" t="s">
         <v>15</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.000248324568576668</v>
+        <v>0.000221208213061791</v>
       </c>
       <c r="J41" t="n">
-        <v>0.20659987440224</v>
+        <v>0.0827859767650235</v>
       </c>
       <c r="K41" t="n">
-        <v>0.25844012559776</v>
+        <v>0.131714023234977</v>
       </c>
       <c r="L41" t="s">
         <v>16</v>
@@ -1999,22 +1969,22 @@
         <v>0.25</v>
       </c>
       <c r="F42" t="n">
-        <v>0.23252</v>
+        <v>0.10725</v>
       </c>
       <c r="G42" t="s">
         <v>17</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.000698892459726584</v>
+        <v>0.000877717015141629</v>
       </c>
       <c r="J42" t="n">
-        <v>0.18903570490936</v>
+        <v>0.0585190906624492</v>
       </c>
       <c r="K42" t="n">
-        <v>0.27600429509064</v>
+        <v>0.155980909337551</v>
       </c>
       <c r="L42" t="s">
         <v>16</v>
@@ -2037,22 +2007,22 @@
         <v>0.5</v>
       </c>
       <c r="F43" t="n">
-        <v>0.47749</v>
+        <v>0.3329</v>
       </c>
       <c r="G43" t="s">
         <v>15</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.000416669050253299</v>
+        <v>0.000645828347744831</v>
       </c>
       <c r="J43" t="n">
-        <v>0.443914469900879</v>
+        <v>0.291099083039839</v>
       </c>
       <c r="K43" t="n">
-        <v>0.511065530099121</v>
+        <v>0.374700916960161</v>
       </c>
       <c r="L43" t="s">
         <v>16</v>
@@ -2075,22 +2045,22 @@
         <v>0.5</v>
       </c>
       <c r="F44" t="n">
-        <v>0.47749</v>
+        <v>0.3329</v>
       </c>
       <c r="G44" t="s">
         <v>17</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.000642330338339025</v>
+        <v>0.00144118827040265</v>
       </c>
       <c r="J44" t="n">
-        <v>0.435802440197824</v>
+        <v>0.270456445559954</v>
       </c>
       <c r="K44" t="n">
-        <v>0.519177559802177</v>
+        <v>0.395343554440046</v>
       </c>
       <c r="L44" t="s">
         <v>16</v>
@@ -2113,22 +2083,22 @@
         <v>0.75</v>
       </c>
       <c r="F45" t="n">
-        <v>0.72452</v>
+        <v>0.64464</v>
       </c>
       <c r="G45" t="s">
         <v>15</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.00030872135955867</v>
+        <v>0.000736007829630703</v>
       </c>
       <c r="J45" t="n">
-        <v>0.695619151336105</v>
+        <v>0.600016002357248</v>
       </c>
       <c r="K45" t="n">
-        <v>0.753420848663896</v>
+        <v>0.689263997642752</v>
       </c>
       <c r="L45" t="s">
         <v>16</v>
@@ -2151,22 +2121,22 @@
         <v>0.75</v>
       </c>
       <c r="F46" t="n">
-        <v>0.72452</v>
+        <v>0.64464</v>
       </c>
       <c r="G46" t="s">
         <v>17</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.000328354673852162</v>
+        <v>0.00082392341933983</v>
       </c>
       <c r="J46" t="n">
-        <v>0.694714332108434</v>
+        <v>0.597426012518844</v>
       </c>
       <c r="K46" t="n">
-        <v>0.754325667891566</v>
+        <v>0.691853987481156</v>
       </c>
       <c r="L46" t="s">
         <v>16</v>
@@ -2189,7 +2159,7 @@
         <v>0.9</v>
       </c>
       <c r="F47" t="n">
-        <v>0.88069</v>
+        <v>0.86305</v>
       </c>
       <c r="G47" t="s">
         <v>15</v>
@@ -2198,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.000129726099603934</v>
+        <v>0.000361792216667803</v>
       </c>
       <c r="J47" t="n">
-        <v>0.861955550458881</v>
+        <v>0.831763508289547</v>
       </c>
       <c r="K47" t="n">
-        <v>0.89942444954112</v>
+        <v>0.894336491710453</v>
       </c>
       <c r="L47" t="s">
         <v>16</v>
@@ -2227,7 +2197,7 @@
         <v>0.9</v>
       </c>
       <c r="F48" t="n">
-        <v>0.88069</v>
+        <v>0.86305</v>
       </c>
       <c r="G48" t="s">
         <v>17</v>
@@ -2236,13 +2206,13 @@
         <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0.000163897331908446</v>
+        <v>0.000547636478015606</v>
       </c>
       <c r="J48" t="n">
-        <v>0.859632190202004</v>
+        <v>0.824557737292815</v>
       </c>
       <c r="K48" t="n">
-        <v>0.901747809797997</v>
+        <v>0.901542262707186</v>
       </c>
       <c r="L48" t="s">
         <v>16</v>
@@ -2265,22 +2235,22 @@
         <v>0.99</v>
       </c>
       <c r="F49" t="n">
-        <v>0.98266</v>
+        <v>0.98968</v>
       </c>
       <c r="G49" t="s">
         <v>15</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0000117793168249408</v>
+        <v>0.0000163731213227624</v>
       </c>
       <c r="J49" t="n">
-        <v>0.977014696329742</v>
+        <v>0.98302431136411</v>
       </c>
       <c r="K49" t="n">
-        <v>0.988305303670259</v>
+        <v>0.99633568863589</v>
       </c>
       <c r="L49" t="s">
         <v>16</v>
@@ -2303,7 +2273,7 @@
         <v>0.99</v>
       </c>
       <c r="F50" t="n">
-        <v>0.98266</v>
+        <v>0.98968</v>
       </c>
       <c r="G50" t="s">
         <v>17</v>
@@ -2312,13 +2282,13 @@
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0000199997814215362</v>
+        <v>0.0000249435735803014</v>
       </c>
       <c r="J50" t="n">
-        <v>0.975304031150938</v>
+        <v>0.981465018428388</v>
       </c>
       <c r="K50" t="n">
-        <v>0.990015968849063</v>
+        <v>0.997894981571612</v>
       </c>
       <c r="L50" t="s">
         <v>16</v>
@@ -2338,25 +2308,25 @@
         <v>14</v>
       </c>
       <c r="E51" t="n">
-        <v>15.6887566951521</v>
+        <v>-2.95315934070469</v>
       </c>
       <c r="F51" t="n">
-        <v>16.8736091152571</v>
+        <v>-1.97526678575741</v>
       </c>
       <c r="G51" t="s">
         <v>17</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1.18155059304943</v>
+        <v>0.0718183539151109</v>
       </c>
       <c r="J51" t="n">
-        <v>15.0856671495581</v>
+        <v>-2.41607023097868</v>
       </c>
       <c r="K51" t="n">
-        <v>18.661551080956</v>
+        <v>-1.53446334053615</v>
       </c>
       <c r="L51" t="s">
         <v>16</v>
@@ -2376,25 +2346,25 @@
         <v>14</v>
       </c>
       <c r="E52" t="n">
-        <v>15.6887566951521</v>
+        <v>-2.95315934070469</v>
       </c>
       <c r="F52" t="n">
-        <v>16.8736091152571</v>
+        <v>-1.97526678575741</v>
       </c>
       <c r="G52" t="s">
         <v>15</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.286323649200736</v>
+        <v>0.00565744480389208</v>
       </c>
       <c r="J52" t="n">
-        <v>15.5952898733405</v>
+        <v>-1.97526678575741</v>
       </c>
       <c r="K52" t="n">
-        <v>17.3555865243034</v>
+        <v>-1.72782820545049</v>
       </c>
       <c r="L52" t="s">
         <v>16</v>
@@ -2414,25 +2384,25 @@
         <v>14</v>
       </c>
       <c r="E53" t="n">
-        <v>15.6887566951521</v>
+        <v>-2.95315934070469</v>
       </c>
       <c r="F53" t="n">
-        <v>16.8736091152571</v>
+        <v>-1.97526678575741</v>
       </c>
       <c r="G53" t="s">
         <v>25</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.286323649200736</v>
+        <v>0.00565744480389208</v>
       </c>
       <c r="J53" t="n">
-        <v>15.5952898733405</v>
+        <v>-1.97526678575741</v>
       </c>
       <c r="K53" t="n">
-        <v>17.3555865243034</v>
+        <v>-1.72782820545049</v>
       </c>
       <c r="L53" t="s">
         <v>16</v>
@@ -2452,25 +2422,25 @@
         <v>18</v>
       </c>
       <c r="E54" t="n">
-        <v>23.0645884570442</v>
+        <v>-1.85385518975421</v>
       </c>
       <c r="F54" t="n">
-        <v>23.4511611215116</v>
+        <v>-1.18487037909399</v>
       </c>
       <c r="G54" t="s">
         <v>17</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.54649125510862</v>
+        <v>0.024118874929004</v>
       </c>
       <c r="J54" t="n">
-        <v>22.2352023072504</v>
+        <v>-1.44032030409753</v>
       </c>
       <c r="K54" t="n">
-        <v>24.6671199357728</v>
+        <v>-0.929420454090454</v>
       </c>
       <c r="L54" t="s">
         <v>16</v>
@@ -2490,25 +2460,25 @@
         <v>18</v>
       </c>
       <c r="E55" t="n">
-        <v>23.0645884570442</v>
+        <v>-1.85385518975421</v>
       </c>
       <c r="F55" t="n">
-        <v>23.4511611215116</v>
+        <v>-1.18487037909399</v>
       </c>
       <c r="G55" t="s">
         <v>15</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.191638130071851</v>
+        <v>0.00602266921265588</v>
       </c>
       <c r="J55" t="n">
-        <v>22.6930601310799</v>
+        <v>-1.36031812177292</v>
       </c>
       <c r="K55" t="n">
-        <v>24.1331785822789</v>
+        <v>-1.10501756741016</v>
       </c>
       <c r="L55" t="s">
         <v>16</v>
@@ -2528,25 +2498,25 @@
         <v>18</v>
       </c>
       <c r="E56" t="n">
-        <v>23.0645884570442</v>
+        <v>-1.85385518975421</v>
       </c>
       <c r="F56" t="n">
-        <v>23.4511611215116</v>
+        <v>-1.18487037909399</v>
       </c>
       <c r="G56" t="s">
         <v>25</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0958974071207602</v>
+        <v>0.00172166067724907</v>
       </c>
       <c r="J56" t="n">
-        <v>22.8725263962072</v>
+        <v>-1.2866464581341</v>
       </c>
       <c r="K56" t="n">
-        <v>23.8912601241269</v>
+        <v>-1.15014696691887</v>
       </c>
       <c r="L56" t="s">
         <v>16</v>
@@ -2566,25 +2536,25 @@
         <v>19</v>
       </c>
       <c r="E57" t="n">
-        <v>27.2438110199214</v>
+        <v>-1.18780790654076</v>
       </c>
       <c r="F57" t="n">
-        <v>27.6701439778163</v>
+        <v>-0.650470386155917</v>
       </c>
       <c r="G57" t="s">
         <v>17</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.294567858606176</v>
+        <v>0.012666305963464</v>
       </c>
       <c r="J57" t="n">
-        <v>26.7774143761793</v>
+        <v>-0.835589918315599</v>
       </c>
       <c r="K57" t="n">
-        <v>28.5628735794532</v>
+        <v>-0.465350853996234</v>
       </c>
       <c r="L57" t="s">
         <v>16</v>
@@ -2604,25 +2574,25 @@
         <v>19</v>
       </c>
       <c r="E58" t="n">
-        <v>27.2438110199214</v>
+        <v>-1.18780790654076</v>
       </c>
       <c r="F58" t="n">
-        <v>27.6701439778163</v>
+        <v>-0.650470386155917</v>
       </c>
       <c r="G58" t="s">
         <v>15</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.140389644399987</v>
+        <v>0.00471656847347226</v>
       </c>
       <c r="J58" t="n">
-        <v>27.0290668355881</v>
+        <v>-0.76970958123472</v>
       </c>
       <c r="K58" t="n">
-        <v>28.2616742888013</v>
+        <v>-0.543781442578237</v>
       </c>
       <c r="L58" t="s">
         <v>16</v>
@@ -2642,25 +2612,25 @@
         <v>19</v>
       </c>
       <c r="E59" t="n">
-        <v>27.2438110199214</v>
+        <v>-1.18780790654076</v>
       </c>
       <c r="F59" t="n">
-        <v>27.6701439778163</v>
+        <v>-0.650470386155917</v>
       </c>
       <c r="G59" t="s">
         <v>25</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.0613714528145114</v>
+        <v>0.000729761624390051</v>
       </c>
       <c r="J59" t="n">
-        <v>27.232559036644</v>
+        <v>-0.696615449300784</v>
       </c>
       <c r="K59" t="n">
-        <v>28.047526845654</v>
+        <v>-0.607746967015588</v>
       </c>
       <c r="L59" t="s">
         <v>16</v>
@@ -2680,25 +2650,25 @@
         <v>20</v>
       </c>
       <c r="E60" t="n">
-        <v>31.9802459892657</v>
+        <v>-0.423352977060986</v>
       </c>
       <c r="F60" t="n">
-        <v>32.3972632612492</v>
+        <v>-0.00555824958071075</v>
       </c>
       <c r="G60" t="s">
         <v>17</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.140148818647622</v>
+        <v>0.00538706679245</v>
       </c>
       <c r="J60" t="n">
-        <v>31.781488368215</v>
+        <v>-0.126284979417511</v>
       </c>
       <c r="K60" t="n">
-        <v>33.0130381542834</v>
+        <v>0.11516848025609</v>
       </c>
       <c r="L60" t="s">
         <v>16</v>
@@ -2718,25 +2688,25 @@
         <v>20</v>
       </c>
       <c r="E61" t="n">
-        <v>31.9802459892657</v>
+        <v>-0.423352977060986</v>
       </c>
       <c r="F61" t="n">
-        <v>32.3972632612492</v>
+        <v>-0.00555824958071075</v>
       </c>
       <c r="G61" t="s">
         <v>15</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.13772989426632</v>
+        <v>0.00442894006729411</v>
       </c>
       <c r="J61" t="n">
-        <v>31.7903808871818</v>
+        <v>-0.11405736867279</v>
       </c>
       <c r="K61" t="n">
-        <v>33.0112563335161</v>
+        <v>0.104873577587883</v>
       </c>
       <c r="L61" t="s">
         <v>16</v>
@@ -2756,10 +2726,10 @@
         <v>20</v>
       </c>
       <c r="E62" t="n">
-        <v>31.9802459892657</v>
+        <v>-0.423352977060986</v>
       </c>
       <c r="F62" t="n">
-        <v>32.3972632612492</v>
+        <v>-0.00555824958071075</v>
       </c>
       <c r="G62" t="s">
         <v>25</v>
@@ -2768,13 +2738,13 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.0521006032607959</v>
+        <v>0.00061737718654644</v>
       </c>
       <c r="J62" t="n">
-        <v>32.0184570665027</v>
+        <v>-0.0462777865767896</v>
       </c>
       <c r="K62" t="n">
-        <v>32.7693510566416</v>
+        <v>0.0354618196314265</v>
       </c>
       <c r="L62" t="s">
         <v>16</v>
@@ -2794,10 +2764,10 @@
         <v>21</v>
       </c>
       <c r="E63" t="n">
-        <v>36.6962823324344</v>
+        <v>0.343735110269007</v>
       </c>
       <c r="F63" t="n">
-        <v>37.2791286554421</v>
+        <v>0.634777263142991</v>
       </c>
       <c r="G63" t="s">
         <v>17</v>
@@ -2806,13 +2776,13 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.0951119862623504</v>
+        <v>0.00567103689151087</v>
       </c>
       <c r="J63" t="n">
-        <v>36.7718519934142</v>
+        <v>0.510909443513514</v>
       </c>
       <c r="K63" t="n">
-        <v>37.7864053174699</v>
+        <v>0.758645082772469</v>
       </c>
       <c r="L63" t="s">
         <v>16</v>
@@ -2832,10 +2802,10 @@
         <v>21</v>
       </c>
       <c r="E64" t="n">
-        <v>36.6962823324344</v>
+        <v>0.343735110269007</v>
       </c>
       <c r="F64" t="n">
-        <v>37.2791286554421</v>
+        <v>0.634777263142991</v>
       </c>
       <c r="G64" t="s">
         <v>15</v>
@@ -2844,13 +2814,13 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.137047032745556</v>
+        <v>0.00544804836822987</v>
       </c>
       <c r="J64" t="n">
-        <v>36.7051038292878</v>
+        <v>0.515575248338361</v>
       </c>
       <c r="K64" t="n">
-        <v>37.9229489792932</v>
+        <v>0.758391488324566</v>
       </c>
       <c r="L64" t="s">
         <v>16</v>
@@ -2870,10 +2840,10 @@
         <v>21</v>
       </c>
       <c r="E65" t="n">
-        <v>36.6962823324344</v>
+        <v>0.343735110269007</v>
       </c>
       <c r="F65" t="n">
-        <v>37.2791286554421</v>
+        <v>0.634777263142991</v>
       </c>
       <c r="G65" t="s">
         <v>25</v>
@@ -2882,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.0578295542534964</v>
+        <v>0.000573355356096019</v>
       </c>
       <c r="J65" t="n">
-        <v>36.8911684374053</v>
+        <v>0.593785371394619</v>
       </c>
       <c r="K65" t="n">
-        <v>37.6822698770799</v>
+        <v>0.672556884787625</v>
       </c>
       <c r="L65" t="s">
         <v>16</v>
@@ -2908,10 +2878,10 @@
         <v>22</v>
       </c>
       <c r="E66" t="n">
-        <v>40.9570401195555</v>
+        <v>1.01828545534371</v>
       </c>
       <c r="F66" t="n">
-        <v>41.7466723845795</v>
+        <v>1.19438034970772</v>
       </c>
       <c r="G66" t="s">
         <v>17</v>
@@ -2920,13 +2890,13 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.160241671819387</v>
+        <v>0.0112744210894658</v>
       </c>
       <c r="J66" t="n">
-        <v>41.0882342278296</v>
+        <v>1.01972802027201</v>
       </c>
       <c r="K66" t="n">
-        <v>42.4051105413295</v>
+        <v>1.36903267914343</v>
       </c>
       <c r="L66" t="s">
         <v>16</v>
@@ -2946,10 +2916,10 @@
         <v>22</v>
       </c>
       <c r="E67" t="n">
-        <v>40.9570401195555</v>
+        <v>1.01828545534371</v>
       </c>
       <c r="F67" t="n">
-        <v>41.7466723845795</v>
+        <v>1.19438034970772</v>
       </c>
       <c r="G67" t="s">
         <v>15</v>
@@ -2958,13 +2928,13 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.186381440112502</v>
+        <v>0.00885094011779841</v>
       </c>
       <c r="J67" t="n">
-        <v>41.0887144137931</v>
+        <v>1.06388246788017</v>
       </c>
       <c r="K67" t="n">
-        <v>42.5089440927694</v>
+        <v>1.37337626813019</v>
       </c>
       <c r="L67" t="s">
         <v>16</v>
@@ -2984,10 +2954,10 @@
         <v>22</v>
       </c>
       <c r="E68" t="n">
-        <v>40.9570401195555</v>
+        <v>1.01828545534371</v>
       </c>
       <c r="F68" t="n">
-        <v>41.7466723845795</v>
+        <v>1.19438034970772</v>
       </c>
       <c r="G68" t="s">
         <v>25</v>
@@ -2996,13 +2966,13 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.0886517627453027</v>
+        <v>0.000617569681689392</v>
       </c>
       <c r="J68" t="n">
-        <v>41.2992152050578</v>
+        <v>1.15244414597548</v>
       </c>
       <c r="K68" t="n">
-        <v>42.2787073109772</v>
+        <v>1.23419649419233</v>
       </c>
       <c r="L68" t="s">
         <v>16</v>
@@ -3022,26 +2992,16 @@
         <v>23</v>
       </c>
       <c r="E69" t="n">
-        <v>48.3307359372254</v>
-      </c>
-      <c r="F69" t="n">
-        <v>50.3238799178242</v>
-      </c>
+        <v>2.12486651454271</v>
+      </c>
+      <c r="F69"/>
       <c r="G69" t="s">
         <v>17</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.628402565139276</v>
-      </c>
-      <c r="J69" t="n">
-        <v>49.0199740751157</v>
-      </c>
-      <c r="K69" t="n">
-        <v>51.6277857605327</v>
-      </c>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
       <c r="L69" t="s">
         <v>16</v>
       </c>
@@ -3060,26 +3020,16 @@
         <v>23</v>
       </c>
       <c r="E70" t="n">
-        <v>48.3307359372254</v>
-      </c>
-      <c r="F70" t="n">
-        <v>50.3238799178242</v>
-      </c>
+        <v>2.12486651454271</v>
+      </c>
+      <c r="F70"/>
       <c r="G70" t="s">
         <v>15</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.678190712657174</v>
-      </c>
-      <c r="J70" t="n">
-        <v>49.2890061887892</v>
-      </c>
-      <c r="K70" t="n">
-        <v>51.9981569363541</v>
-      </c>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
       <c r="L70" t="s">
         <v>16</v>
       </c>
@@ -3098,26 +3048,16 @@
         <v>23</v>
       </c>
       <c r="E71" t="n">
-        <v>48.3307359372254</v>
-      </c>
-      <c r="F71" t="n">
-        <v>50.3238799178242</v>
-      </c>
+        <v>2.12486651454271</v>
+      </c>
+      <c r="F71"/>
       <c r="G71" t="s">
         <v>25</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.678190712657174</v>
-      </c>
-      <c r="J71" t="n">
-        <v>49.2890061887892</v>
-      </c>
-      <c r="K71" t="n">
-        <v>51.9981569363541</v>
-      </c>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
       <c r="L71" t="s">
         <v>16</v>
       </c>
